--- a/base.xlsx
+++ b/base.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="1" state="visible" r:id="rId3"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="71">
   <si>
     <t xml:space="preserve">f_crop</t>
   </si>
@@ -52,9 +52,6 @@
     <t xml:space="preserve">new</t>
   </si>
   <si>
-    <t xml:space="preserve">organic</t>
-  </si>
-  <si>
     <t xml:space="preserve">Peas (add)</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
     <t xml:space="preserve">drop</t>
   </si>
   <si>
+    <t xml:space="preserve">export_demand</t>
+  </si>
+  <si>
     <t xml:space="preserve">dairy</t>
   </si>
   <si>
@@ -127,9 +127,6 @@
     <t xml:space="preserve">min_share_in_ration</t>
   </si>
   <si>
-    <t xml:space="preserve">abs</t>
-  </si>
-  <si>
     <t xml:space="preserve">ley silage, regrowth</t>
   </si>
   <si>
@@ -172,12 +169,54 @@
     <t xml:space="preserve">rapeseed</t>
   </si>
   <si>
+    <t xml:space="preserve">vegetable oils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rapeseed meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rapeseed cake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wheat bran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wheat bran, fine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oat hulls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oat bran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rye bran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wheat distillers grain, dry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barley brewers grain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maize gluten meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sugar beet molasses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sugar beet pulp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whey powder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potatoe protein</t>
+  </si>
+  <si>
     <t xml:space="preserve">linseed</t>
   </si>
   <si>
-    <t xml:space="preserve">vegetable oils</t>
-  </si>
-  <si>
     <t xml:space="preserve">soybeans</t>
   </si>
   <si>
@@ -187,12 +226,6 @@
     <t xml:space="preserve">soybean protein concentrate</t>
   </si>
   <si>
-    <t xml:space="preserve">rapeseed meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rapeseed cake</t>
-  </si>
-  <si>
     <t xml:space="preserve">sunflower seed meal</t>
   </si>
   <si>
@@ -200,42 +233,6 @@
   </si>
   <si>
     <t xml:space="preserve">luzern meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wheat bran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wheat bran, fine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oat hulls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oat bran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rye bran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wheat distillers grain, dry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barley brewers grain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maize gluten meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sugar beet molasses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sugar beet pulp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">whey powder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">potatoe protein</t>
   </si>
   <si>
     <t xml:space="preserve">fish meal</t>
@@ -335,7 +332,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -349,6 +346,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -545,16 +546,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -588,15 +589,15 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -605,50 +606,16 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -658,10 +625,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -672,10 +639,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -691,30 +658,59 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -736,8 +732,8 @@
   </sheetPr>
   <dimension ref="A1:G231"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -866,7 +862,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
@@ -883,7 +879,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>20</v>
@@ -897,7 +893,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>21</v>
@@ -911,7 +907,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
@@ -925,7 +921,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>23</v>
@@ -939,7 +935,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>24</v>
@@ -953,7 +949,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>25</v>
@@ -2772,7 +2768,7 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>1011</v>
@@ -2792,7 +2788,7 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>111</v>
@@ -2809,7 +2805,7 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>1111</v>
@@ -2826,7 +2822,7 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>1112</v>
@@ -2843,7 +2839,7 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>112</v>
@@ -2860,7 +2856,7 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>1121</v>
@@ -2877,7 +2873,7 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>1122</v>
@@ -2894,7 +2890,7 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>1123</v>
@@ -2911,7 +2907,7 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>1124</v>
@@ -2928,7 +2924,7 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>1131</v>
@@ -2945,7 +2941,7 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>1211</v>
@@ -2962,7 +2958,7 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>1212</v>
@@ -2979,7 +2975,7 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>1213</v>
@@ -2996,7 +2992,7 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>1214</v>
@@ -3013,7 +3009,7 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>1215</v>
@@ -3030,7 +3026,7 @@
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>1216</v>
@@ -3047,7 +3043,7 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>1221</v>
@@ -3064,7 +3060,7 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>1222</v>
@@ -3081,7 +3077,7 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>1311</v>
@@ -3098,7 +3094,7 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>1321</v>
@@ -3115,7 +3111,7 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>1322</v>
@@ -3132,7 +3128,7 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>1331</v>
@@ -3149,7 +3145,7 @@
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>1411</v>
@@ -3166,7 +3162,7 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>1412</v>
@@ -3183,7 +3179,7 @@
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>1421</v>
@@ -3200,7 +3196,7 @@
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>1511</v>
@@ -3217,7 +3213,7 @@
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>1512</v>
@@ -3234,7 +3230,7 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>1521</v>
@@ -3251,7 +3247,7 @@
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>1522</v>
@@ -3268,7 +3264,7 @@
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>1611</v>
@@ -3285,7 +3281,7 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>1612</v>
@@ -3302,7 +3298,7 @@
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>1613</v>
@@ -3319,7 +3315,7 @@
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>1614</v>
@@ -3336,7 +3332,7 @@
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>1615</v>
@@ -3353,7 +3349,7 @@
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>1616</v>
@@ -3370,7 +3366,7 @@
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>1617</v>
@@ -3387,7 +3383,7 @@
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>1621</v>
@@ -3404,7 +3400,7 @@
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>1622</v>
@@ -3421,7 +3417,7 @@
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>1623</v>
@@ -3438,7 +3434,7 @@
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>1711</v>
@@ -3455,7 +3451,7 @@
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>1712</v>
@@ -3472,7 +3468,7 @@
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>1713</v>
@@ -3489,7 +3485,7 @@
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>1721</v>
@@ -3506,7 +3502,7 @@
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>1722</v>
@@ -3523,7 +3519,7 @@
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>1723</v>
@@ -3540,7 +3536,7 @@
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>1724</v>
@@ -3557,7 +3553,7 @@
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B172" s="1" t="n">
         <v>1811</v>
@@ -3574,7 +3570,7 @@
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>1812</v>
@@ -3591,7 +3587,7 @@
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>1813</v>
@@ -3608,7 +3604,7 @@
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B175" s="1" t="n">
         <v>1821</v>
@@ -3625,7 +3621,7 @@
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>1911</v>
@@ -3642,7 +3638,7 @@
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>1912</v>
@@ -3659,7 +3655,7 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>1921</v>
@@ -3676,7 +3672,7 @@
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>1922</v>
@@ -3693,7 +3689,7 @@
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>2011</v>
@@ -3710,7 +3706,7 @@
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>2012</v>
@@ -3727,7 +3723,7 @@
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>2019</v>
@@ -3744,7 +3740,7 @@
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>2111</v>
@@ -3761,7 +3757,7 @@
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>2121</v>
@@ -3778,7 +3774,7 @@
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>2122</v>
@@ -3795,7 +3791,7 @@
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>2211</v>
@@ -3812,7 +3808,7 @@
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>2212</v>
@@ -3829,7 +3825,7 @@
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>2221</v>
@@ -3846,7 +3842,7 @@
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>2311</v>
@@ -3863,7 +3859,7 @@
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>2312</v>
@@ -3880,7 +3876,7 @@
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>2319</v>
@@ -3897,7 +3893,7 @@
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B192" s="1" t="n">
         <v>2331</v>
@@ -3914,7 +3910,7 @@
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B193" s="1" t="n">
         <v>2411</v>
@@ -3931,7 +3927,7 @@
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B194" s="1" t="n">
         <v>2412</v>
@@ -3948,7 +3944,7 @@
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B195" s="1" t="n">
         <v>2413</v>
@@ -3965,7 +3961,7 @@
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B196" s="1" t="n">
         <v>2414</v>
@@ -3982,7 +3978,7 @@
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B197" s="1" t="n">
         <v>2415</v>
@@ -3999,7 +3995,7 @@
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B198" s="1" t="n">
         <v>2419</v>
@@ -4016,7 +4012,7 @@
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B199" s="1" t="n">
         <v>2511</v>
@@ -4033,7 +4029,7 @@
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B200" s="1" t="n">
         <v>2512</v>
@@ -4050,7 +4046,7 @@
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B201" s="1" t="n">
         <v>2519</v>
@@ -4067,7 +4063,7 @@
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B202" s="1" t="n">
         <v>2521</v>
@@ -4084,7 +4080,7 @@
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B203" s="1" t="n">
         <v>311</v>
@@ -4101,7 +4097,7 @@
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B204" s="1" t="n">
         <v>312</v>
@@ -4118,7 +4114,7 @@
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B205" s="1" t="n">
         <v>321</v>
@@ -4135,7 +4131,7 @@
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B206" s="1" t="n">
         <v>322</v>
@@ -4152,7 +4148,7 @@
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B207" s="1" t="n">
         <v>411</v>
@@ -4169,7 +4165,7 @@
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B208" s="1" t="n">
         <v>421</v>
@@ -4186,7 +4182,7 @@
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B209" s="1" t="n">
         <v>422</v>
@@ -4203,7 +4199,7 @@
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B210" s="1" t="n">
         <v>431</v>
@@ -4220,7 +4216,7 @@
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B211" s="1" t="n">
         <v>511</v>
@@ -4237,7 +4233,7 @@
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B212" s="1" t="n">
         <v>512</v>
@@ -4254,7 +4250,7 @@
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B213" s="1" t="n">
         <v>513</v>
@@ -4271,7 +4267,7 @@
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B214" s="1" t="n">
         <v>514</v>
@@ -4288,7 +4284,7 @@
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B215" s="1" t="n">
         <v>515</v>
@@ -4305,7 +4301,7 @@
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B216" s="1" t="n">
         <v>521</v>
@@ -4322,7 +4318,7 @@
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B217" s="1" t="n">
         <v>611</v>
@@ -4339,7 +4335,7 @@
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B218" s="1" t="n">
         <v>612</v>
@@ -4356,7 +4352,7 @@
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B219" s="1" t="n">
         <v>621</v>
@@ -4373,7 +4369,7 @@
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B220" s="1" t="n">
         <v>622</v>
@@ -4390,7 +4386,7 @@
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B221" s="1" t="n">
         <v>711</v>
@@ -4407,7 +4403,7 @@
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B222" s="1" t="n">
         <v>731</v>
@@ -4424,7 +4420,7 @@
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B223" s="1" t="n">
         <v>811</v>
@@ -4441,7 +4437,7 @@
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B224" s="1" t="n">
         <v>812</v>
@@ -4458,7 +4454,7 @@
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B225" s="1" t="n">
         <v>813</v>
@@ -4475,7 +4471,7 @@
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B226" s="1" t="n">
         <v>814</v>
@@ -4492,7 +4488,7 @@
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B227" s="1" t="n">
         <v>821</v>
@@ -4509,7 +4505,7 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B228" s="1" t="n">
         <v>831</v>
@@ -4526,7 +4522,7 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B229" s="1" t="n">
         <v>911</v>
@@ -4543,7 +4539,7 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B230" s="1" t="n">
         <v>912</v>
@@ -4560,7 +4556,7 @@
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B231" s="1" t="n">
         <v>913</v>
@@ -4577,11 +4573,11 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -4591,10 +4587,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4622,7 +4618,7 @@
         <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>1</v>
@@ -4632,448 +4628,440 @@
       <c r="D3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="1" t="n">
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="1" t="n">
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="1" t="n">
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="1" t="n">
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="1" t="n">
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="1" t="n">
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="1" t="n">
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="1" t="n">
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="1" t="n">
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="1" t="n">
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="1" t="n">
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="1" t="n">
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="1" t="n">
+      <c r="C18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="1" t="n">
+      <c r="C19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="1" t="n">
+      <c r="C20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="1" t="n">
+      <c r="C21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="1" t="n">
+      <c r="C22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="1" t="n">
+      <c r="C23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="1" t="n">
+      <c r="C24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="1" t="n">
+      <c r="C26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="1" t="n">
+      <c r="C27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="1" t="n">
+      <c r="C28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="1" t="n">
+      <c r="C29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="1" t="n">
+      <c r="C30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="1" t="n">
+      <c r="C31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="1" t="n">
+      <c r="C32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="1" t="n">
+      <c r="C33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>0</v>
@@ -5081,13 +5069,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>0</v>
@@ -5095,13 +5083,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>0</v>
@@ -5109,13 +5097,13 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>0</v>
@@ -5123,13 +5111,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>0</v>
@@ -5137,13 +5125,13 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>0</v>
@@ -5151,17 +5139,101 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0"/>
+      <c r="B44" s="0"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0"/>
+      <c r="B45" s="0"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0"/>
+      <c r="B57" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/base.xlsx
+++ b/base.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="71">
   <si>
     <t xml:space="preserve">f_crop</t>
   </si>
@@ -214,28 +214,28 @@
     <t xml:space="preserve">potatoe protein</t>
   </si>
   <si>
+    <t xml:space="preserve">fish meal</t>
+  </si>
+  <si>
     <t xml:space="preserve">linseed</t>
   </si>
   <si>
+    <t xml:space="preserve">luzern meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palm kernel expeller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soybean meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soybean protein concentrate</t>
+  </si>
+  <si>
     <t xml:space="preserve">soybeans</t>
   </si>
   <si>
-    <t xml:space="preserve">soybean meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soybean protein concentrate</t>
-  </si>
-  <si>
     <t xml:space="preserve">sunflower seed meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palm kernel expeller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">luzern meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fish meal</t>
   </si>
 </sst>
 </file>
@@ -366,6 +366,23 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -4587,10 +4604,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5069,7 +5086,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>33</v>
@@ -5083,7 +5100,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>33</v>
@@ -5097,7 +5114,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>33</v>
@@ -5111,7 +5128,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>33</v>
@@ -5125,7 +5142,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>33</v>
@@ -5139,7 +5156,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>33</v>
@@ -5153,7 +5170,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>33</v>
@@ -5166,26 +5183,8 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0"/>
-      <c r="B44" s="0"/>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0"/>
-      <c r="B45" s="0"/>
+      <c r="A43" s="0"/>
+      <c r="B43" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="1"/>
@@ -5230,10 +5229,6 @@
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0"/>
-      <c r="B57" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/base.xlsx
+++ b/base.xlsx
@@ -12,6 +12,7 @@
     <sheet name="DemandAndConversions" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="CropProduction" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="CattleHerd" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="FeedMgmt" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="80">
   <si>
     <t xml:space="preserve">f_crop</t>
   </si>
@@ -184,27 +185,51 @@
     <t xml:space="preserve">wheat bran, fine</t>
   </si>
   <si>
+    <t xml:space="preserve">fish meal</t>
+  </si>
+  <si>
     <t xml:space="preserve">oat hulls</t>
   </si>
   <si>
+    <t xml:space="preserve">linseed</t>
+  </si>
+  <si>
     <t xml:space="preserve">oat bran</t>
   </si>
   <si>
+    <t xml:space="preserve">luzern meal</t>
+  </si>
+  <si>
     <t xml:space="preserve">rye bran</t>
   </si>
   <si>
+    <t xml:space="preserve">palm kernel expeller</t>
+  </si>
+  <si>
     <t xml:space="preserve">wheat distillers grain, dry</t>
   </si>
   <si>
+    <t xml:space="preserve">soybean meal</t>
+  </si>
+  <si>
     <t xml:space="preserve">barley brewers grain</t>
   </si>
   <si>
+    <t xml:space="preserve">soybean protein concentrate</t>
+  </si>
+  <si>
     <t xml:space="preserve">maize gluten meal</t>
   </si>
   <si>
+    <t xml:space="preserve">soybeans</t>
+  </si>
+  <si>
     <t xml:space="preserve">sugar beet molasses</t>
   </si>
   <si>
+    <t xml:space="preserve">sunflower seed meal</t>
+  </si>
+  <si>
     <t xml:space="preserve">sugar beet pulp</t>
   </si>
   <si>
@@ -214,28 +239,31 @@
     <t xml:space="preserve">potatoe protein</t>
   </si>
   <si>
-    <t xml:space="preserve">fish meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">linseed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">luzern meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palm kernel expeller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soybean meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soybean protein concentrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soybeans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sunflower seed meal</t>
+    <t xml:space="preserve">f_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f_crop_prod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f_by_prod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cattle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">share_domestic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">milling by-products from wheat, barley or rye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">organic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wheat distillers grain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whey</t>
   </si>
 </sst>
 </file>
@@ -366,23 +394,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -565,7 +576,7 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -644,8 +655,8 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -749,8 +760,8 @@
   </sheetPr>
   <dimension ref="A1:G231"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4604,10 +4615,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4923,10 +4934,22 @@
       <c r="D23" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="H23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>33</v>
@@ -4937,10 +4960,22 @@
       <c r="D24" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="H24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>33</v>
@@ -4951,10 +4986,22 @@
       <c r="D25" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="H25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>33</v>
@@ -4965,10 +5012,22 @@
       <c r="D26" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="H26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>33</v>
@@ -4979,10 +5038,22 @@
       <c r="D27" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="H27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>33</v>
@@ -4993,10 +5064,22 @@
       <c r="D28" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="H28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>33</v>
@@ -5007,10 +5090,22 @@
       <c r="D29" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="H29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>33</v>
@@ -5021,10 +5116,22 @@
       <c r="D30" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="H30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>33</v>
@@ -5038,7 +5145,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>33</v>
@@ -5052,7 +5159,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>33</v>
@@ -5069,122 +5176,6 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0"/>
-      <c r="B43" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="1"/>
@@ -5239,4 +5230,524 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Q27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="14.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="42.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="8.59"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="K19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q19" s="3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="K20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="K23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/base.xlsx
+++ b/base.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="85">
   <si>
     <t xml:space="preserve">f_crop</t>
   </si>
@@ -158,112 +158,127 @@
     <t xml:space="preserve">rye</t>
   </si>
   <si>
+    <t xml:space="preserve">peas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">broad beans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rapeseed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vegetable oils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rapeseed meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rapeseed cake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wheat bran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wheat bran, fine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oat hulls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oat bran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rye bran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wheat distillers grain, dry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barley brewers grain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maize gluten meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sugar beet molasses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sugar beet pulp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potatoe protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luzern meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sunflower seed meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palm kern expeller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wheat distillers grain, wet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fish meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soybean protein concentrated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whey powder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f_crop_prod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f_by_prod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cattle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soybeans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">share_domestic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linseed</t>
+  </si>
+  <si>
     <t xml:space="preserve">maize</t>
   </si>
   <si>
-    <t xml:space="preserve">peas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">broad beans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rapeseed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vegetable oils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rapeseed meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rapeseed cake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wheat bran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wheat bran, fine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fish meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oat hulls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">linseed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oat bran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">luzern meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rye bran</t>
+    <t xml:space="preserve">milling by-products from wheat, barley or rye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soybean meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soybean protein concentrate</t>
   </si>
   <si>
     <t xml:space="preserve">palm kernel expeller</t>
   </si>
   <si>
-    <t xml:space="preserve">wheat distillers grain, dry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soybean meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barley brewers grain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soybean protein concentrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maize gluten meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soybeans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sugar beet molasses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sunflower seed meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sugar beet pulp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">whey powder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">potatoe protein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f_crop_prod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f_by_prod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cattle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">share_domestic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">milling by-products from wheat, barley or rye</t>
-  </si>
-  <si>
     <t xml:space="preserve">organic</t>
   </si>
   <si>
     <t xml:space="preserve">wheat distillers grain</t>
   </si>
   <si>
-    <t xml:space="preserve">whey</t>
+    <t xml:space="preserve">milling by-products from oats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potatoe offals</t>
   </si>
 </sst>
 </file>
@@ -360,7 +375,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -377,12 +392,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -576,7 +595,7 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -655,14 +674,14 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -760,8 +779,8 @@
   </sheetPr>
   <dimension ref="A1:G231"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A75" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4615,15 +4634,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4656,570 +4677,527 @@
       <c r="D3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="n">
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4" t="n">
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4" t="n">
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4" t="n">
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="4" t="n">
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4" t="n">
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4" t="n">
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4" t="n">
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="4" t="n">
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="4" t="n">
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="4" t="n">
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="4" t="n">
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="4" t="n">
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="4" t="n">
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="4" t="n">
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="4" t="n">
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="4" t="n">
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="4" t="n">
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="4" t="n">
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="4" t="n">
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K23" s="1" t="n">
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
+      <c r="E24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="4" t="n">
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" s="1" t="n">
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+      <c r="E26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="4" t="n">
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K25" s="1" t="n">
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="4" t="n">
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K26" s="1" t="n">
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
+      <c r="E30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="4" t="n">
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="G32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K27" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G34" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K28" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G36" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G38" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K30" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G39" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5237,33 +5215,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="14.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="42.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="8.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="44.36"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -5275,64 +5252,64 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -5341,7 +5318,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -5350,404 +5327,353 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G12" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G13" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="3" t="n">
+      <c r="F15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G17" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G19" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="K19" s="1" t="s">
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q19" s="3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G20" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="K20" s="1" t="s">
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q20" s="3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G21" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K22" s="1" t="s">
+      <c r="H21" s="5"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q22" s="3" t="n">
+      <c r="F23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
-      <c r="K23" s="1" t="s">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q23" s="3" t="n">
+      <c r="F26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3"/>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>